--- a/src/attributions/attributions_saliency_traj_495.xlsx
+++ b/src/attributions/attributions_saliency_traj_495.xlsx
@@ -1004,571 +1004,571 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.00046378537081182</v>
+        <v>2.798309196805349e-06</v>
       </c>
       <c r="B2" t="n">
-        <v>2.111811409122311e-05</v>
+        <v>6.857823609607294e-05</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0002341298968531191</v>
+        <v>1.033773878589272e-05</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0002855220809578896</v>
+        <v>0.0001113996186177246</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002114208647981286</v>
+        <v>1.271485052711796e-05</v>
       </c>
       <c r="F2" t="n">
-        <v>8.949412585934624e-05</v>
+        <v>1.699950189504307e-05</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0008211276144720614</v>
+        <v>2.013372977671679e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0004317242710385472</v>
+        <v>1.911777144414373e-05</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0001555997005198151</v>
+        <v>1.362473994959146e-06</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0005278183962218463</v>
+        <v>1.554690061311703e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0002279067994095385</v>
+        <v>6.771647167624906e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0005418920191004872</v>
+        <v>1.373544819216477e-06</v>
       </c>
       <c r="M2" t="n">
-        <v>2.844804112100974e-05</v>
+        <v>0.0001052890656865202</v>
       </c>
       <c r="N2" t="n">
-        <v>0.002161914482712746</v>
+        <v>6.001838301017415e-06</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0001465301029384136</v>
+        <v>6.059832958271727e-05</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0001717967679724097</v>
+        <v>1.232252543559298e-05</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0003309936437290162</v>
+        <v>3.258737342548557e-05</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0003887581988237798</v>
+        <v>3.159287734888494e-05</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0002828988363035023</v>
+        <v>1.762691317708232e-05</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0001032351065077819</v>
+        <v>2.235352076240815e-05</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0001048002304742113</v>
+        <v>5.090327249490656e-06</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0006025505135767162</v>
+        <v>1.279080606764182e-06</v>
       </c>
       <c r="W2" t="n">
-        <v>4.69357764814049e-05</v>
+        <v>1.858564610301983e-05</v>
       </c>
       <c r="X2" t="n">
-        <v>0.0001851645502028987</v>
+        <v>2.603900065878406e-05</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.328423240920529e-05</v>
+        <v>1.674876330071129e-06</v>
       </c>
       <c r="Z2" t="n">
-        <v>5.309593689162284e-06</v>
+        <v>1.256848645425634e-05</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.0001096779888030142</v>
+        <v>2.133612724719569e-06</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.0003383438743185252</v>
+        <v>2.737362410698552e-05</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.0002389022993156686</v>
+        <v>2.543309710745234e-05</v>
       </c>
       <c r="AD2" t="n">
-        <v>3.515754724503495e-05</v>
+        <v>7.781000022077933e-06</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.000411427638027817</v>
+        <v>1.757039171934593e-05</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.563082878419664e-05</v>
+        <v>4.580178938340396e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6.230909639270976e-05</v>
+        <v>9.106909601541702e-06</v>
       </c>
       <c r="AH2" t="n">
-        <v>2.478464739397168e-05</v>
+        <v>7.681573151785415e-06</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.0003657044726423919</v>
+        <v>6.675121767329983e-06</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.0002555632672738284</v>
+        <v>1.717582381388638e-05</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.000105964601971209</v>
+        <v>2.029737152042799e-05</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.0001169314127764665</v>
+        <v>3.953975465265103e-05</v>
       </c>
       <c r="AM2" t="n">
-        <v>9.874989336822182e-05</v>
+        <v>3.923156782548176e-06</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.0002627110807225108</v>
+        <v>1.537560092401691e-05</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.0003314772911835462</v>
+        <v>2.883356728489161e-06</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.0003682952956296504</v>
+        <v>4.402941613079747e-06</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.0001222436549142003</v>
+        <v>7.236207238747738e-06</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.0002484560827724636</v>
+        <v>1.160887131845811e-05</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.0001104699476854876</v>
+        <v>7.948366146592889e-06</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.0002038786333287135</v>
+        <v>2.209943340858445e-05</v>
       </c>
       <c r="AU2" t="n">
-        <v>2.566166949691251e-05</v>
+        <v>2.242265873064753e-05</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.0002942212158814073</v>
+        <v>3.1501185731031e-06</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.0001827035885071382</v>
+        <v>5.737869651056826e-05</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.001051882980391383</v>
+        <v>2.936443524959031e-05</v>
       </c>
       <c r="AY2" t="n">
-        <v>4.762986645800993e-05</v>
+        <v>1.511842037871247e-05</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.0002809605794027448</v>
+        <v>1.680542300164234e-05</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.0002008127339649945</v>
+        <v>1.871075596682203e-07</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.0005733306752517819</v>
+        <v>5.38746326128603e-06</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.0002323199005331844</v>
+        <v>3.33755497194943e-06</v>
       </c>
       <c r="BD2" t="n">
-        <v>3.136829400318675e-05</v>
+        <v>3.022004057129379e-05</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.0001015835150610656</v>
+        <v>6.857976131868782e-06</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.0002802016388159245</v>
+        <v>3.644971729954705e-05</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.0008507606689818203</v>
+        <v>4.356037607067265e-06</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.0003083681804127991</v>
+        <v>8.121409337036312e-06</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.0001791348913684487</v>
+        <v>4.653170890378533e-06</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.0005306684761308134</v>
+        <v>2.100398432958173e-06</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.0001165604844572954</v>
+        <v>2.750420435404521e-06</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.0002025420253630728</v>
+        <v>3.376780659891665e-05</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.000168441139976494</v>
+        <v>4.184376666671596e-05</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.0002093674847856164</v>
+        <v>1.948642420757096e-07</v>
       </c>
       <c r="BO2" t="n">
-        <v>5.908044840907678e-06</v>
+        <v>1.073755811376031e-05</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.0001805797801353037</v>
+        <v>1.171796611743048e-06</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.0005388830904848874</v>
+        <v>1.494761704634584e-06</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.000352686969563365</v>
+        <v>6.880673026898876e-06</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.0003716889186762273</v>
+        <v>2.727500259425142e-06</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.0004757859569508582</v>
+        <v>9.346810657007154e-06</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.0001845959050115198</v>
+        <v>2.768559716059826e-05</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.0001187670204672031</v>
+        <v>2.207756187999621e-05</v>
       </c>
       <c r="BW2" t="n">
-        <v>1.29092441056855e-05</v>
+        <v>1.356558072984626e-06</v>
       </c>
       <c r="BX2" t="n">
-        <v>6.025844777468592e-05</v>
+        <v>1.995388265640941e-05</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.0004675695090554655</v>
+        <v>1.457520738767926e-05</v>
       </c>
       <c r="BZ2" t="n">
-        <v>9.743121336214244e-05</v>
+        <v>8.958427315519657e-06</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.0003684963448904455</v>
+        <v>1.06226416392019e-05</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.0004793416592292488</v>
+        <v>6.538737125083571e-06</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.0001856398303061724</v>
+        <v>1.727400012896396e-05</v>
       </c>
       <c r="CD2" t="n">
-        <v>1.727906419546343e-05</v>
+        <v>1.699817585176788e-05</v>
       </c>
       <c r="CE2" t="n">
-        <v>4.939696373185143e-05</v>
+        <v>4.787078069057316e-06</v>
       </c>
       <c r="CF2" t="n">
-        <v>6.268552169785835e-06</v>
+        <v>2.800688434945187e-06</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.000110375891381409</v>
+        <v>2.719058647926431e-05</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.000433048204286024</v>
+        <v>9.403148396813776e-06</v>
       </c>
       <c r="CI2" t="n">
-        <v>4.422469828568865e-06</v>
+        <v>1.127697851188714e-05</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.000207424585823901</v>
+        <v>6.073601070966106e-06</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.0002399719960521907</v>
+        <v>7.28566055840929e-06</v>
       </c>
       <c r="CL2" t="n">
-        <v>8.92060634214431e-05</v>
+        <v>2.664664407348027e-06</v>
       </c>
       <c r="CM2" t="n">
-        <v>3.41586273862049e-05</v>
+        <v>4.637644906324567e-06</v>
       </c>
       <c r="CN2" t="n">
-        <v>9.845021122600883e-05</v>
+        <v>2.527682227082551e-06</v>
       </c>
       <c r="CO2" t="n">
-        <v>7.434959115926176e-05</v>
+        <v>1.347108081972692e-06</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.0004747637140098959</v>
+        <v>2.186058191000484e-05</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.0002158595743821934</v>
+        <v>9.138337190961465e-06</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.0001022883225232363</v>
+        <v>1.985643393709324e-06</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.0001994221529457718</v>
+        <v>3.706401548697613e-05</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.0004021524218842387</v>
+        <v>4.877160245086998e-05</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.0001860190095612779</v>
+        <v>2.548379234212916e-05</v>
       </c>
       <c r="CV2" t="n">
-        <v>2.709401815081947e-05</v>
+        <v>1.91278122656513e-05</v>
       </c>
       <c r="CW2" t="n">
-        <v>1.744739165587816e-05</v>
+        <v>7.908423867775127e-06</v>
       </c>
       <c r="CX2" t="n">
-        <v>4.116907803108916e-05</v>
+        <v>3.850097073154757e-06</v>
       </c>
       <c r="CY2" t="n">
-        <v>3.386878233868629e-05</v>
+        <v>2.259600660181604e-05</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.0004309180949348956</v>
+        <v>6.375808879965916e-06</v>
       </c>
       <c r="DA2" t="n">
-        <v>7.456220919266343e-05</v>
+        <v>1.665625131863635e-05</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.0002724287915043533</v>
+        <v>3.35795630235225e-06</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.0002423415862722322</v>
+        <v>5.608307219517883e-06</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.0001099138826248236</v>
+        <v>3.497895932014217e-06</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.0001275905087823048</v>
+        <v>3.427338924666401e-06</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.0001857758325058967</v>
+        <v>6.005336399539374e-05</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.0001729345531202853</v>
+        <v>3.322701013530605e-05</v>
       </c>
       <c r="DH2" t="n">
-        <v>5.969735502731055e-05</v>
+        <v>1.823858110583387e-05</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.0004271871875971556</v>
+        <v>2.70585387625033e-05</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.0003809233021456748</v>
+        <v>3.775221921387129e-05</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.000501232803799212</v>
+        <v>4.974389958078973e-05</v>
       </c>
       <c r="DL2" t="n">
-        <v>7.580775854876265e-05</v>
+        <v>5.029707608628087e-06</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.0001454837474739179</v>
+        <v>2.448593841108959e-05</v>
       </c>
       <c r="DN2" t="n">
-        <v>9.317447984358296e-05</v>
+        <v>2.0136092643952e-05</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.0002269383840030059</v>
+        <v>1.013246856018668e-05</v>
       </c>
       <c r="DP2" t="n">
-        <v>5.517314275493845e-05</v>
+        <v>2.953794682980515e-05</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.0001055521934176795</v>
+        <v>3.281303361291066e-05</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.000125645223306492</v>
+        <v>2.736860096774762e-06</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.0002137344272341579</v>
+        <v>8.697052180650644e-06</v>
       </c>
       <c r="DT2" t="n">
-        <v>6.044811016181484e-05</v>
+        <v>5.388488716562279e-06</v>
       </c>
       <c r="DU2" t="n">
-        <v>3.349274993524887e-05</v>
+        <v>3.870238288072869e-06</v>
       </c>
       <c r="DV2" t="n">
-        <v>4.910786810796708e-05</v>
+        <v>9.953812877938617e-06</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.0001152118857135065</v>
+        <v>2.69046904577408e-05</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.0001590405445313081</v>
+        <v>1.109183358494192e-05</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.0001610162580618635</v>
+        <v>1.11941608338384e-05</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.0001408713287673891</v>
+        <v>1.388270356983412e-05</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.0002488459285814315</v>
+        <v>1.221739148604684e-05</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.0001796279393602163</v>
+        <v>2.354566095164046e-05</v>
       </c>
       <c r="EC2" t="n">
-        <v>1.436597085557878e-05</v>
+        <v>1.571878419781569e-05</v>
       </c>
       <c r="ED2" t="n">
-        <v>4.819468449568376e-05</v>
+        <v>2.773849155346397e-05</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.0004026633978355676</v>
+        <v>7.229837592603872e-06</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.0001267403713427484</v>
+        <v>6.041768756404053e-07</v>
       </c>
       <c r="EG2" t="n">
-        <v>6.35443429928273e-05</v>
+        <v>2.761450332400273e-06</v>
       </c>
       <c r="EH2" t="n">
-        <v>6.95303242537193e-05</v>
+        <v>1.65719688993704e-06</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.0002422821999061853</v>
+        <v>4.833114508073777e-05</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.0002173281973227859</v>
+        <v>8.587338015786372e-06</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.0002441589604131877</v>
+        <v>8.631486707599834e-06</v>
       </c>
       <c r="EL2" t="n">
-        <v>6.337451486615464e-05</v>
+        <v>1.400332166667795e-06</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.0004242234281264246</v>
+        <v>1.411632365488913e-05</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.0001195685908896849</v>
+        <v>5.205230991123244e-06</v>
       </c>
       <c r="EO2" t="n">
-        <v>3.983164788223803e-05</v>
+        <v>2.802246854116675e-05</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.0003291106841061264</v>
+        <v>1.02428998616233e-06</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.0001209032925544307</v>
+        <v>2.197150752181187e-05</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.0002329821290913969</v>
+        <v>1.829323809943162e-05</v>
       </c>
       <c r="ES2" t="n">
-        <v>1.388882083119825e-06</v>
+        <v>2.657544882822549e-06</v>
       </c>
       <c r="ET2" t="n">
-        <v>3.393048973521218e-05</v>
+        <v>3.480237501207739e-05</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.0002488783502485603</v>
+        <v>4.805858225154225e-06</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.0004460646887309849</v>
+        <v>1.317619080509758e-05</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.0005014208145439625</v>
+        <v>1.063894615072059e-05</v>
       </c>
       <c r="EX2" t="n">
-        <v>3.908888902515173e-05</v>
+        <v>2.276476880069822e-05</v>
       </c>
       <c r="EY2" t="n">
-        <v>2.09252793865744e-05</v>
+        <v>6.736626346537378e-06</v>
       </c>
       <c r="EZ2" t="n">
-        <v>6.660739018116146e-06</v>
+        <v>4.843964234169107e-06</v>
       </c>
       <c r="FA2" t="n">
-        <v>3.544109858921729e-06</v>
+        <v>2.599408799142111e-05</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.0004160193493589759</v>
+        <v>1.142358087236062e-05</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.0001369879464618862</v>
+        <v>1.164094555861084e-05</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.000125499238492921</v>
+        <v>9.842760846368037e-07</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.000224448463995941</v>
+        <v>2.765020781225758e-06</v>
       </c>
       <c r="FF2" t="n">
-        <v>7.170041499193758e-05</v>
+        <v>1.002447243081406e-05</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.000120584896649234</v>
+        <v>1.062316823663423e-05</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.0002535444800741971</v>
+        <v>2.98685954476241e-05</v>
       </c>
       <c r="FI2" t="n">
-        <v>6.807329918956384e-05</v>
+        <v>3.161727136102854e-06</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.0001117277715820819</v>
+        <v>1.346133831248153e-05</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.0002776327601168305</v>
+        <v>1.58780694619054e-05</v>
       </c>
       <c r="FL2" t="n">
-        <v>0.00036827870644629</v>
+        <v>1.44227669807151e-06</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.0002385624393355101</v>
+        <v>1.588656050444115e-05</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.0005022946279495955</v>
+        <v>1.086864085664274e-05</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.000364580424502492</v>
+        <v>4.542354872683063e-06</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.000138289004098624</v>
+        <v>3.784450382227078e-05</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.0001495193864684552</v>
+        <v>3.013462264789268e-05</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.0002341820218134671</v>
+        <v>9.53305971052032e-07</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.0009457726846449077</v>
+        <v>2.586841674201423e-06</v>
       </c>
       <c r="FT2" t="n">
-        <v>1.646861346671358e-05</v>
+        <v>9.15068721951684e-06</v>
       </c>
       <c r="FU2" t="n">
-        <v>5.328435508999974e-05</v>
+        <v>1.066069580701878e-05</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.0002044288848992437</v>
+        <v>6.799553375458345e-05</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.0004174686619080603</v>
+        <v>3.361298877280205e-05</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.0002433448389638215</v>
+        <v>8.861562491802033e-06</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.0001945438852999359</v>
+        <v>4.946364060742781e-05</v>
       </c>
       <c r="FZ2" t="n">
-        <v>2.523946022847667e-05</v>
+        <v>5.208874426898547e-06</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.0001518532226327807</v>
+        <v>4.152228211751208e-05</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.0001218420875375159</v>
+        <v>2.928381945821457e-06</v>
       </c>
       <c r="GC2" t="n">
-        <v>0.0002089902991428971</v>
+        <v>3.897691931342706e-05</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.0005587121704593301</v>
+        <v>2.214713276771363e-05</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.0001097349522751756</v>
+        <v>3.514525087666698e-05</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.00068393733818084</v>
+        <v>2.119813325407449e-05</v>
       </c>
       <c r="GG2" t="n">
-        <v>0.0003149935801047832</v>
+        <v>2.092780232487712e-05</v>
       </c>
     </row>
     <row r="3">
